--- a/doc/Scenari/Promuovi partecipante.xlsx
+++ b/doc/Scenari/Promuovi partecipante.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Caso d'uso</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Il database contiene la nuova informazione inerente all'utente organizzatore e dalla pagina "Home" non è più possibile promuoverlo</t>
+  </si>
+  <si>
+    <t>Sequenza degli eventi alternativa</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -153,11 +156,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,14 +186,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8:I17"/>
+  <dimension ref="H8:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,28 +577,44 @@
       </c>
     </row>
     <row r="15" spans="8:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="8:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="H17" s="7" t="s">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="8:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
